--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6107BAA9-AFE9-4D22-9396-08A832F24B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{30198775-6733-45E3-BF23-1CA2BE9165A6}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="1710" windowWidth="18915" windowHeight="10740" xr2:uid="{7FA755C6-479D-490F-B3D9-5A283DD51A2C}"/>
+    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{7FA755C6-479D-490F-B3D9-5A283DD51A2C}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="FEINmismatch" sheetId="1" r:id="rId1"/>
+    <sheet name="FEINmismatch" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="108">
   <si>
     <t>Result</t>
   </si>
@@ -56,6 +56,39 @@
     <t>Y</t>
   </si>
   <si>
+    <t>Existing Liability w/Notice Number</t>
+  </si>
+  <si>
+    <t>Quarterly Estimated Tax</t>
+  </si>
+  <si>
+    <t>New Tax Return Amount Due</t>
+  </si>
+  <si>
+    <t>Bay Restoration Fee</t>
+  </si>
+  <si>
+    <t>PTE Non-Electing Non-S Corp</t>
+  </si>
+  <si>
+    <t>PTE Non-Electing S Corp</t>
+  </si>
+  <si>
+    <t>Tire Recycling Fee</t>
+  </si>
+  <si>
+    <t>PTE Tax Electing Non-S Corp</t>
+  </si>
+  <si>
+    <t>PTE Tax Electing S Corp</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Corporate Income Tax</t>
+  </si>
+  <si>
     <t>Fiduciary Tax</t>
   </si>
   <si>
@@ -68,130 +101,272 @@
     <t>Alcohol Tax</t>
   </si>
   <si>
-    <t>Existing Liability w/Notice Number</t>
-  </si>
-  <si>
-    <t>Quarterly Estimated Tax</t>
-  </si>
-  <si>
-    <t>Extension Payment</t>
-  </si>
-  <si>
-    <t>New Tax Return Amount Due</t>
-  </si>
-  <si>
-    <t>Bay Restoration Fee</t>
-  </si>
-  <si>
-    <t>Corporate Income Tax</t>
-  </si>
-  <si>
-    <t>PTE Non-Electing Non-S Corp</t>
-  </si>
-  <si>
-    <t>PTE Non-Electing S Corp</t>
-  </si>
-  <si>
-    <t>Tire Recycling Fee</t>
-  </si>
-  <si>
-    <t>PTE Tax Electing Non-S Corp</t>
-  </si>
-  <si>
-    <t>PTE Tax Electing S Corp</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:50:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:50:59 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:51:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:51:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:51:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:51:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:52:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:52:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:52:25 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:52:37 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:52:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:53:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:53:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:53:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:53:38 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:53:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:54:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:54:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:54:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:54:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:54:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:55:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:55:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:55:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:55:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:55:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:56:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 15:56:16 EDT 2023</t>
+    <t>Fri Sep 08 12:19:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:20:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:20:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:20:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:20:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:20:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:21:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:21:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:21:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:21:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:21:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:22:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:22:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:22:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:22:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:22:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:23:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:23:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:23:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:23:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:23:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:24:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:24:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:24:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:24:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:24:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:25:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:25:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Extension Payments</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:10:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:10:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:11:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:11:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:11:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:11:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:12:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:12:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:12:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:12:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:12:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:13:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:13:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:13:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:13:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:13:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:14:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:14:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:14:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:14:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:14:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:15:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:15:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:15:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:15:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:15:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:16:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:16:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:48:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:48:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:48:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:49:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:49:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:49:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:49:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:50:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:50:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:50:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:50:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:50:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:51:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:51:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:51:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:51:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:51:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:52:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:52:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:52:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:52:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:53:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:53:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:53:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:53:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:53:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:54:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:54:17 EDT 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,19 +409,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -263,10 +438,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -301,7 +476,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -353,7 +528,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -464,21 +639,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -495,7 +670,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -547,28 +722,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4607C70C-95F5-42E8-8763-F94D5F6C9468}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4607C70C-95F5-42E8-8763-F94D5F6C9468}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="40.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="40.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -590,482 +765,482 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="192">
   <si>
     <t>Result</t>
   </si>
@@ -360,6 +360,258 @@
   </si>
   <si>
     <t>Fri Sep 08 17:54:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:33:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:33:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:33:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:33:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:34:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:34:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:34:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:34:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:34:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:35:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:35:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:35:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:35:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:35:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:36:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:36:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:36:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:36:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:36:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:37:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:37:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:37:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:37:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:37:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:38:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:38:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:38:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:38:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:44:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:44:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:44:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:45:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:45:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:45:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:45:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:45:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:46:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:46:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:46:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:46:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:46:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:47:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:47:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:47:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:47:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:47:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:48:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:48:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:48:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:48:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:48:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:49:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:49:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:49:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:49:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:50:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:43:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:43:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:43:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:43:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:44:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:44:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:44:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:44:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:44:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:45:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:45:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:45:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:45:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:45:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:46:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:46:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:46:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:46:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:46:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:47:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:47:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:47:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:47:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:47:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:47:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:48:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:48:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:48:35 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -768,7 +1020,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -785,7 +1037,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -802,7 +1054,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -819,7 +1071,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -836,7 +1088,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -853,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -870,7 +1122,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -887,7 +1139,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -904,7 +1156,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -921,7 +1173,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -938,7 +1190,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -955,7 +1207,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -972,7 +1224,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -989,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1006,7 +1258,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1023,7 +1275,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1040,7 +1292,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1057,7 +1309,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1074,7 +1326,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1091,7 +1343,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1108,7 +1360,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1125,7 +1377,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1142,7 +1394,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1159,7 +1411,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1176,7 +1428,7 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1193,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1210,7 +1462,7 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1227,7 +1479,7 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="97">
   <si>
     <t>Result</t>
   </si>
@@ -244,6 +244,90 @@
   </si>
   <si>
     <t>Wed Sep 27 16:38:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:16:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:17:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:17:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:17:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:17:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:17:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:18:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:18:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:18:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:18:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:18:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:19:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:19:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:19:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:19:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:19:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:20:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:20:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:20:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:20:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:20:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:21:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:21:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:21:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:21:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:21:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:22:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:22:11 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -652,7 +736,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -669,7 +753,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -686,7 +770,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -703,7 +787,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -720,7 +804,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -737,7 +821,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -754,7 +838,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -771,7 +855,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -788,7 +872,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -805,7 +889,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -822,7 +906,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -839,7 +923,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -899,7 +983,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -916,7 +1000,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -933,7 +1017,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -950,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -967,7 +1051,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -984,7 +1068,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1001,7 +1085,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1018,7 +1102,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1035,7 +1119,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1052,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1069,7 +1153,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1086,7 +1170,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1103,7 +1187,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1120,7 +1204,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1137,7 +1221,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1154,7 +1238,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="153">
   <si>
     <t>Result</t>
   </si>
@@ -328,6 +328,174 @@
   </si>
   <si>
     <t>Fri Sep 29 11:22:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:12:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:12:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:12:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:13:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:13:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:13:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:13:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:13:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:14:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:14:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:14:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:14:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:14:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:15:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:15:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:15:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:15:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:15:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:16:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:16:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:16:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:16:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:16:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:16:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:17:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:17:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:17:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:17:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:21:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:21:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:21:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:21:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:22:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:22:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:22:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:22:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:22:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:23:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:23:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:23:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:23:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:23:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:24:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:24:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:24:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:24:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:24:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:25:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:25:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:25:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:25:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:25:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:26:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:26:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:26:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:26:34 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -736,7 +904,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -753,7 +921,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -770,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -787,7 +955,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -804,7 +972,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -821,7 +989,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -838,7 +1006,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -855,7 +1023,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -872,7 +1040,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -889,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -906,7 +1074,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -923,7 +1091,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -983,7 +1151,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1000,7 +1168,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1017,7 +1185,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1034,7 +1202,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1051,7 +1219,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1068,7 +1236,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1085,7 +1253,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1102,7 +1270,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1119,7 +1287,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1136,7 +1304,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1153,7 +1321,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1170,7 +1338,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1187,7 +1355,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1204,7 +1372,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1221,7 +1389,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1238,7 +1406,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="181">
   <si>
     <t>Result</t>
   </si>
@@ -496,6 +496,90 @@
   </si>
   <si>
     <t>Mon Oct 02 16:26:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:08:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:08:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:08:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:08:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:08:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:09:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:09:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:09:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:09:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:09:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:10:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:10:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:10:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:10:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:10:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:11:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:11:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:11:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:11:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:11:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:12:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:12:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:12:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:12:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:12:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:13:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:13:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:13:23 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -904,7 +988,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -921,7 +1005,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -938,7 +1022,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -955,7 +1039,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -972,7 +1056,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -989,7 +1073,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1006,7 +1090,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1023,7 +1107,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1040,7 +1124,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1057,7 +1141,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1074,7 +1158,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1091,7 +1175,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1151,7 +1235,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1168,7 +1252,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1185,7 +1269,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1202,7 +1286,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1219,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1236,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1253,7 +1337,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1270,7 +1354,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1287,7 +1371,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1304,7 +1388,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1321,7 +1405,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1338,7 +1422,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1355,7 +1439,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1372,7 +1456,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1389,7 +1473,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1406,7 +1490,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="209">
   <si>
     <t>Result</t>
   </si>
@@ -580,6 +580,90 @@
   </si>
   <si>
     <t>Fri Oct 06 11:13:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:24:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:25:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:25:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:25:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:25:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:25:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:26:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:26:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:26:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:26:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:26:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:27:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:27:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:27:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:27:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:27:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:28:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:28:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:28:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:28:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:28:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:29:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:29:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:29:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:29:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:29:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:29:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:30:09 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1072,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1005,7 +1089,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1022,7 +1106,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1039,7 +1123,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1056,7 +1140,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1073,7 +1157,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1090,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1107,7 +1191,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1124,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1141,7 +1225,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1158,7 +1242,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1175,7 +1259,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1235,7 +1319,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1252,7 +1336,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1269,7 +1353,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1286,7 +1370,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1303,7 +1387,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1320,7 +1404,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1337,7 +1421,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1354,7 +1438,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1371,7 +1455,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1388,7 +1472,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1405,7 +1489,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1422,7 +1506,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1439,7 +1523,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1456,7 +1540,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1473,7 +1557,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1490,7 +1574,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="295">
   <si>
     <t>Result</t>
   </si>
@@ -664,6 +664,264 @@
   </si>
   <si>
     <t>Mon Oct 09 22:30:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:15:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:16:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:16:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:16:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:16:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:16:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:16:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:17:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:17:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:17:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:17:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:17:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:18:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:19:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:20:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:21:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:23:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:24:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:25:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:27:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:28:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:29:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:30:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:32:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:33:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:34:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:35:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:37:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:15:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:15:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:15:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:15:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:16:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:16:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:16:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:16:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:16:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:17:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:17:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:17:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:24:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:24:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:26:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:26:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:26:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:26:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:27:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:27:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:27:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:27:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:27:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:27:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:28:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:28:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:28:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:28:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:28:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:29:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:32:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:32:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:32:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:32:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:32:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:33:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:33:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:33:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:33:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:33:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:33:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:34:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:34:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:34:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:34:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:34:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:35:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:35:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:35:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:35:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:35:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:35:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:36:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:36:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:36:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:36:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:36:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:36:55 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1330,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1089,7 +1347,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>268</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1106,7 +1364,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>269</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1123,7 +1381,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>270</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1140,7 +1398,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1157,7 +1415,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>272</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1174,7 +1432,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1191,7 +1449,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1208,7 +1466,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1225,7 +1483,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>276</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1242,7 +1500,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>277</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1259,7 +1517,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>278</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1319,7 +1577,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>279</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1336,7 +1594,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1353,7 +1611,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1370,7 +1628,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>282</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1387,7 +1645,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1404,7 +1662,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1421,7 +1679,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1438,7 +1696,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1455,7 +1713,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1472,7 +1730,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>288</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1489,7 +1747,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1506,7 +1764,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1523,7 +1781,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1540,7 +1798,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1557,7 +1815,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1574,7 +1832,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>294</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{45ED0CD0-4226-493E-B13B-F2B058412A79}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DFC2F6C2-E2D1-4390-902C-86E94156CEFB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="16905" windowWidth="14865" xWindow="2535" xr2:uid="{7FA755C6-479D-490F-B3D9-5A283DD51A2C}" yWindow="120"/>
+    <workbookView activeTab="1" windowHeight="14565" windowWidth="18810" xWindow="3480" xr2:uid="{7FA755C6-479D-490F-B3D9-5A283DD51A2C}" yWindow="2460"/>
   </bookViews>
   <sheets>
     <sheet name="FEINmismatch" r:id="rId1" sheetId="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="64">
   <si>
     <t>Result</t>
   </si>
@@ -102,826 +102,133 @@
     <t>Alcohol Tax</t>
   </si>
   <si>
+    <t>Extension Payments</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:35:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:35:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:36:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:36:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>DONOTRUN</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:25:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:25:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:25:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:25:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:26:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:26:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:26:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:26:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:26:48 EST 2023</t>
+  </si>
+  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Extension Payments</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 14:40:38 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 14:40:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 14:41:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 14:41:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 14:41:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 14:41:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 14:41:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 14:42:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 14:42:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 14:42:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 14:42:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 14:42:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 15:50:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 15:50:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 15:50:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 15:51:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 15:51:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 15:51:38 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 15:51:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 15:52:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 15:52:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 15:52:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 15:52:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 15:52:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 15:52:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 15:53:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 16:04:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 16:07:54 EDT 2023</t>
+    <t>Thu Dec 07 21:26:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:27:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:27:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:27:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:27:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:27:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:28:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:28:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:28:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:28:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:28:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:28:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:29:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:29:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:29:28 EST 2023</t>
+  </si>
+  <si>
+    <t>DoNotRun</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Wed Sep 27 16:08:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 16:09:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 16:09:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 16:09:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 16:09:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 16:09:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 16:10:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 16:10:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 16:10:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 16:10:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 16:10:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 16:11:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 16:11:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 16:11:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 16:11:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 16:11:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 16:38:48 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:16:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:17:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:17:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:17:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:17:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:17:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:18:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:18:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:18:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:18:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:18:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:19:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:19:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:19:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:19:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:19:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:20:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:20:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:20:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:20:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:20:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:21:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:21:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:21:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:21:37 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:21:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:22:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:22:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:12:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:12:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:12:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:13:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:13:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:13:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:13:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:13:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:14:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:14:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:14:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:14:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:14:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:15:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:15:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:15:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:15:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:15:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:16:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:16:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:16:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:16:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:16:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:16:59 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:17:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:17:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:17:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:17:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:21:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:21:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:21:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:21:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:22:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:22:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:22:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:22:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:22:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:23:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:23:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:23:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:23:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:23:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:24:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:24:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:24:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:24:37 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:24:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:25:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:25:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:25:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:25:38 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:25:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:26:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:26:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:26:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:26:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:08:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:08:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:08:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:08:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:08:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:09:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:09:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:09:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:09:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:09:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:10:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:10:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:10:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:10:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:10:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:11:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:11:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:11:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:11:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:11:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:12:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:12:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:12:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:12:37 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:12:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:13:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:13:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:13:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:24:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:25:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:25:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:25:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:25:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:25:59 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:26:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:26:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:26:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:26:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:26:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:27:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:27:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:27:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:27:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:27:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:28:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:28:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:28:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:28:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:28:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:29:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:29:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:29:25 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:29:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:29:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:29:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:30:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:15:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:16:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:16:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:16:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:16:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:16:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:16:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:17:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:17:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:17:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:17:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:17:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:18:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:19:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:20:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:21:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:23:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:24:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:25:48 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:27:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:28:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:29:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:30:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:32:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:33:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:34:37 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:35:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:37:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:15:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:15:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:15:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:15:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:16:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:16:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:16:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:16:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:16:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:17:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:17:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:17:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:24:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:24:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:26:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:26:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:26:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:26:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:27:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:27:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:27:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:27:37 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:27:48 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:27:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:28:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:28:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:28:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:28:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:28:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:29:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:32:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:32:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:32:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:32:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:32:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:33:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:33:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:33:25 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:33:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:33:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:33:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:34:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:34:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:34:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:34:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:34:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:35:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:35:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:35:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:35:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:35:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:35:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:36:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:36:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:36:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:36:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:36:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:36:55 EDT 2023</t>
+    <t>Fri Dec 08 10:44:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 10:44:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 10:44:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 10:44:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 10:44:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 10:45:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 10:45:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 10:45:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 10:45:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 10:45:49 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -1295,14 +602,14 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.140625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="40.140625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
     <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
@@ -1330,7 +637,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1347,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1364,7 +671,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1381,7 +688,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1398,7 +705,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1415,7 +722,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1432,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1449,7 +756,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1466,7 +773,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1480,16 +787,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
@@ -1497,16 +804,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>277</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>17</v>
@@ -1517,7 +824,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>278</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1542,14 +849,14 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="40.140625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
     <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
@@ -1577,7 +884,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1594,7 +901,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1611,7 +918,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1628,7 +935,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1645,7 +952,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1662,7 +969,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1679,7 +986,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1696,7 +1003,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1713,13 +1020,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -1730,13 +1037,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>288</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
@@ -1747,13 +1054,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>289</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -1764,13 +1071,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
@@ -1781,7 +1088,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1798,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>292</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1815,7 +1122,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>293</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1832,7 +1139,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="86">
   <si>
     <t>Result</t>
   </si>
@@ -229,6 +229,72 @@
   </si>
   <si>
     <t>Fri Dec 08 10:45:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:37:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:37:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:37:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:37:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:38:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:38:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:38:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:38:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:38:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:39:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:39:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:39:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:39:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:39:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:39:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:40:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:40:20 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:40:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:40:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:40:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:41:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:41:15 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -637,7 +703,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -654,7 +720,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -671,7 +737,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -688,7 +754,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -705,7 +771,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -722,7 +788,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -739,7 +805,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -756,7 +822,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -773,7 +839,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -824,7 +890,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -884,7 +950,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -901,7 +967,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -918,7 +984,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -935,7 +1001,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -952,7 +1018,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -969,7 +1035,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -986,7 +1052,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1003,7 +1069,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1088,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1105,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1122,7 +1188,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1139,7 +1205,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{DFC2F6C2-E2D1-4390-902C-86E94156CEFB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AE0A53-C073-4147-B32D-6C6E556C63B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="14565" windowWidth="18810" xWindow="3480" xr2:uid="{7FA755C6-479D-490F-B3D9-5A283DD51A2C}" yWindow="2460"/>
+    <workbookView xWindow="1170" yWindow="2280" windowWidth="24525" windowHeight="14010" xr2:uid="{7FA755C6-479D-490F-B3D9-5A283DD51A2C}"/>
   </bookViews>
   <sheets>
-    <sheet name="FEINmismatch" r:id="rId1" sheetId="1"/>
-    <sheet name="FEINSSNmismatch" r:id="rId2" sheetId="2"/>
+    <sheet name="FEINmismatch" sheetId="1" r:id="rId1"/>
+    <sheet name="FEINSSNmismatch" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="62">
   <si>
     <t>Result</t>
   </si>
@@ -120,33 +120,6 @@
     <t>DONOTRUN</t>
   </si>
   <si>
-    <t>Thu Dec 07 21:25:17 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:25:30 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:25:42 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:25:53 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:26:04 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:26:15 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:26:26 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:26:37 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:26:48 EST 2023</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -156,81 +129,9 @@
     <t>Thu Dec 07 21:27:10 EST 2023</t>
   </si>
   <si>
-    <t>Thu Dec 07 21:27:21 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:27:33 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:27:43 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:27:54 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:28:04 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:28:15 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:28:25 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:28:35 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:28:46 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:28:56 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:29:07 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:29:17 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:29:28 EST 2023</t>
-  </si>
-  <si>
     <t>DoNotRun</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Fri Dec 08 10:44:05 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 10:44:18 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 10:44:30 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 10:44:41 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 10:44:53 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 10:45:04 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 10:45:15 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 10:45:27 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 10:45:38 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 10:45:49 EST 2023</t>
-  </si>
-  <si>
     <t>Wed Dec 20 12:37:16 EST 2023</t>
   </si>
   <si>
@@ -295,13 +196,39 @@
   </si>
   <si>
     <t>Wed Dec 20 12:41:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Admissions and Amusement Tax</t>
+  </si>
+  <si>
+    <t>Estate Tax</t>
+  </si>
+  <si>
+    <t>Motor Fuel Tax</t>
+  </si>
+  <si>
+    <t>Slots License Fee</t>
+  </si>
+  <si>
+    <t>Tobacco Tax</t>
+  </si>
+  <si>
+    <t>Transportation Network Services</t>
+  </si>
+  <si>
+    <t>Unclaimed Property</t>
+  </si>
+  <si>
+    <t>IFTA Tax</t>
+  </si>
+  <si>
+    <t>Sales and Use Tax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -344,19 +271,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -373,10 +300,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -411,7 +338,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -463,7 +390,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -574,21 +501,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -605,7 +532,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -657,28 +584,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4607C70C-95F5-42E8-8763-F94D5F6C9468}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4607C70C-95F5-42E8-8763-F94D5F6C9468}">
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="40.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -703,7 +630,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -720,7 +647,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -737,7 +664,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -754,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -771,7 +698,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -788,7 +715,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -805,7 +732,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -822,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -839,7 +766,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -853,13 +780,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
@@ -870,13 +797,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>21</v>
@@ -890,7 +817,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -902,8 +829,239 @@
         <v>17</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -911,21 +1069,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834489CB-2884-4184-82EB-D42CF0009FC1}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834489CB-2884-4184-82EB-D42CF0009FC1}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="40.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -950,7 +1108,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -967,7 +1125,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -984,7 +1142,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1001,7 +1159,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1018,7 +1176,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1035,7 +1193,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1052,7 +1210,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1069,7 +1227,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1154,7 +1312,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1171,7 +1329,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1188,7 +1346,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1205,7 +1363,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1218,6 +1376,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AE0A53-C073-4147-B32D-6C6E556C63B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{23952862-0581-479E-8CD4-E0CBFE289024}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="2280" windowWidth="24525" windowHeight="14010" xr2:uid="{7FA755C6-479D-490F-B3D9-5A283DD51A2C}"/>
+    <workbookView activeTab="1" windowHeight="14010" windowWidth="24525" xWindow="-25185" xr2:uid="{7FA755C6-479D-490F-B3D9-5A283DD51A2C}" yWindow="2880"/>
   </bookViews>
   <sheets>
-    <sheet name="FEINmismatch" sheetId="1" r:id="rId1"/>
-    <sheet name="FEINSSNmismatch" sheetId="2" r:id="rId2"/>
+    <sheet name="FEINmismatch" r:id="rId1" sheetId="1"/>
+    <sheet name="FEINSSNmismatch" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="120">
   <si>
     <t>Result</t>
   </si>
@@ -132,78 +132,9 @@
     <t>DoNotRun</t>
   </si>
   <si>
-    <t>Wed Dec 20 12:37:16 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:37:29 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:37:41 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:37:52 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:38:05 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:38:18 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:38:29 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:38:40 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:38:51 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:39:02 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:39:14 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:39:25 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:39:36 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:39:47 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:39:58 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:40:09 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:40:20 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:40:31 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:40:42 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:40:53 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:41:04 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:41:15 EST 2023</t>
-  </si>
-  <si>
     <t>Admissions and Amusement Tax</t>
   </si>
   <si>
-    <t>Estate Tax</t>
-  </si>
-  <si>
     <t>Motor Fuel Tax</t>
   </si>
   <si>
@@ -223,12 +154,256 @@
   </si>
   <si>
     <t>Sales and Use Tax</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:29:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:30:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:30:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:30:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:30:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:30:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:30:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:31:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:31:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:31:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:31:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:32:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:32:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:32:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:32:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:32:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:33:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:33:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:33:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:33:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:34:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:34:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:34:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:34:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:34:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:35:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:35:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:35:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:35:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:35:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:35:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:36:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:36:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:36:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:36:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:36:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:37:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:37:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:37:23 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sun Jan 14 15:58:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 15:58:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 15:58:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 15:58:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 15:58:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 15:59:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 15:59:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 15:59:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 15:59:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 15:59:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:00:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:00:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:00:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:00:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:00:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:00:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:01:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:01:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:01:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:01:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:01:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:02:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:02:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:02:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:02:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:02:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:02:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:03:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:03:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:03:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:03:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:03:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:03:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:04:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:04:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:04:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:04:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:04:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:04:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:05:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:05:20 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,19 +446,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -300,10 +475,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -338,7 +513,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -390,7 +565,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -501,21 +676,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -532,7 +707,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -584,28 +759,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4607C70C-95F5-42E8-8763-F94D5F6C9468}">
-  <dimension ref="A1:E34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4607C70C-95F5-42E8-8763-F94D5F6C9468}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="40.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="40.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -630,7 +805,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -647,7 +822,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -664,7 +839,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -681,7 +856,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -698,7 +873,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -715,7 +890,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -732,7 +907,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -749,7 +924,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -766,7 +941,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -817,7 +992,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -830,6 +1005,12 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,10 +1018,16 @@
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,10 +1035,16 @@
         <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
@@ -859,10 +1052,16 @@
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
@@ -870,10 +1069,16 @@
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
@@ -881,10 +1086,16 @@
         <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
@@ -892,32 +1103,50 @@
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
@@ -925,10 +1154,16 @@
         <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,10 +1171,16 @@
         <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
@@ -947,10 +1188,16 @@
         <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
@@ -958,10 +1205,16 @@
         <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
@@ -969,10 +1222,16 @@
         <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
@@ -980,10 +1239,16 @@
         <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
@@ -991,10 +1256,16 @@
         <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
@@ -1002,10 +1273,16 @@
         <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
@@ -1013,55 +1290,11 @@
         <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="1" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1069,21 +1302,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834489CB-2884-4184-82EB-D42CF0009FC1}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834489CB-2884-4184-82EB-D42CF0009FC1}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="40.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="40.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1108,7 +1341,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1125,7 +1358,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1142,7 +1375,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1159,7 +1392,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1176,7 +1409,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1193,7 +1426,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1210,7 +1443,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1227,7 +1460,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1312,7 +1545,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1329,7 +1562,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1346,7 +1579,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1363,7 +1596,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1375,7 +1608,41 @@
         <v>14</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="161">
   <si>
     <t>Result</t>
   </si>
@@ -397,6 +397,129 @@
   </si>
   <si>
     <t>Sun Jan 14 16:05:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:10:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:10:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:10:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:11:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:11:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:11:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:11:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:11:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:12:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:12:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:12:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:12:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:12:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:12:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:13:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:13:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:13:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:13:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:14:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:14:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:14:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:14:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:14:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:14:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:15:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:15:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:15:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:15:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:15:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:16:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:16:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:16:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:16:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:16:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:16:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:17:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:17:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:17:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:17:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:17:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:18:05 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -805,7 +928,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -822,7 +945,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -839,7 +962,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -856,7 +979,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -873,7 +996,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -890,7 +1013,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -907,7 +1030,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -924,7 +1047,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -941,7 +1064,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -992,7 +1115,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1009,7 +1132,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1026,7 +1149,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1043,7 +1166,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1060,7 +1183,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1077,7 +1200,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1094,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1111,7 +1234,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1128,7 +1251,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1145,7 +1268,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1162,7 +1285,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1179,7 +1302,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1196,7 +1319,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1213,7 +1336,7 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1230,7 +1353,7 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1247,7 +1370,7 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1264,7 +1387,7 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1281,7 +1404,7 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -1341,7 +1464,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1358,7 +1481,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1375,7 +1498,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1392,7 +1515,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1409,7 +1532,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1426,7 +1549,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1443,7 +1566,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1460,7 +1583,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1545,7 +1668,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1562,7 +1685,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1579,7 +1702,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1596,7 +1719,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1613,7 +1736,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1630,7 +1753,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="202">
   <si>
     <t>Result</t>
   </si>
@@ -520,6 +520,129 @@
   </si>
   <si>
     <t>Thu Jan 25 17:18:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:47:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:48:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:48:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:48:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:48:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:49:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:49:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:49:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:49:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:49:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:50:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:50:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:50:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:50:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:50:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:51:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:51:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:51:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:51:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:51:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:51:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:52:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:52:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:52:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:52:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:52:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:53:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:53:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:53:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:53:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:53:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:54:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:54:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:54:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:54:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:54:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:55:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:55:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:55:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:55:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:55:46 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -928,7 +1051,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -945,7 +1068,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -962,7 +1085,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -979,7 +1102,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -996,7 +1119,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1013,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1030,7 +1153,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1047,7 +1170,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1064,7 +1187,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1115,7 +1238,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1132,7 +1255,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1149,7 +1272,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1166,7 +1289,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1183,7 +1306,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1200,7 +1323,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1217,7 +1340,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1234,7 +1357,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1251,7 +1374,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1268,7 +1391,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1285,7 +1408,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1302,7 +1425,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1319,7 +1442,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1336,7 +1459,7 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1353,7 +1476,7 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1370,7 +1493,7 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1387,7 +1510,7 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1404,7 +1527,7 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -1464,7 +1587,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1481,7 +1604,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1498,7 +1621,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1515,7 +1638,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1532,7 +1655,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1549,7 +1672,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1566,7 +1689,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1583,7 +1706,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1668,7 +1791,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1685,7 +1808,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1702,7 +1825,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1719,7 +1842,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1736,7 +1859,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1753,7 +1876,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="243">
   <si>
     <t>Result</t>
   </si>
@@ -643,6 +643,129 @@
   </si>
   <si>
     <t>Sat Feb 03 22:55:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:19:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:19:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:19:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:19:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:20:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:20:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:20:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:20:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:20:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:20:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:21:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:21:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:21:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:21:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:21:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:22:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:22:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:22:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:22:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:22:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:22:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:23:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:23:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:23:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:23:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:23:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:24:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:24:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:24:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:24:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:24:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:24:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:25:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:25:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:25:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:25:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:25:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:26:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:26:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:26:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:26:33 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1068,7 +1191,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1085,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1102,7 +1225,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1119,7 +1242,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1136,7 +1259,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1153,7 +1276,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1170,7 +1293,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1187,7 +1310,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1238,7 +1361,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1255,7 +1378,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1272,7 +1395,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1289,7 +1412,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1306,7 +1429,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1323,7 +1446,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1340,7 +1463,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1357,7 +1480,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1374,7 +1497,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1391,7 +1514,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1408,7 +1531,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1425,7 +1548,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1442,7 +1565,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1459,7 +1582,7 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1476,7 +1599,7 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1493,7 +1616,7 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1510,7 +1633,7 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1527,7 +1650,7 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -1587,7 +1710,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1604,7 +1727,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1621,7 +1744,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1638,7 +1761,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1655,7 +1778,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1672,7 +1795,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1689,7 +1812,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1706,7 +1829,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1791,7 +1914,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1808,7 +1931,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1825,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1842,7 +1965,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1859,7 +1982,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1876,7 +1999,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="284">
   <si>
     <t>Result</t>
   </si>
@@ -766,6 +766,129 @@
   </si>
   <si>
     <t>Sat Feb 17 22:26:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:16:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:16:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:17:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:18:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:18:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:19:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:19:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:20:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:21:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:21:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:22:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:22:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:23:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:23:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:24:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:24:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:25:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:25:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:26:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:26:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:27:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:27:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:28:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:28:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:29:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:30:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:30:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:31:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:31:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:32:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:32:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:33:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:33:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:34:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:35:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:35:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:35:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:36:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:36:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:37:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:37:52 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1297,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1191,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1208,7 +1331,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1225,7 +1348,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1242,7 +1365,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1259,7 +1382,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1276,7 +1399,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1293,7 +1416,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1310,7 +1433,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1361,7 +1484,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1378,7 +1501,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1395,7 +1518,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1412,7 +1535,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1429,7 +1552,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1446,7 +1569,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1463,7 +1586,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1480,7 +1603,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1497,7 +1620,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1514,7 +1637,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1531,7 +1654,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1548,7 +1671,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1565,7 +1688,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1582,7 +1705,7 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1599,7 +1722,7 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1616,7 +1739,7 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1633,7 +1756,7 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1650,7 +1773,7 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -1710,7 +1833,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>270</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1727,7 +1850,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1744,7 +1867,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1761,7 +1884,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1778,7 +1901,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1795,7 +1918,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1812,7 +1935,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1829,7 +1952,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1914,7 +2037,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1931,7 +2054,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1948,7 +2071,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1965,7 +2088,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1982,7 +2105,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1999,7 +2122,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{23952862-0581-479E-8CD4-E0CBFE289024}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05332167-E719-4128-8C2B-15CB0DEEC5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="14010" windowWidth="24525" xWindow="-25185" xr2:uid="{7FA755C6-479D-490F-B3D9-5A283DD51A2C}" yWindow="2880"/>
+    <workbookView xWindow="30270" yWindow="915" windowWidth="24525" windowHeight="14010" activeTab="1" xr2:uid="{7FA755C6-479D-490F-B3D9-5A283DD51A2C}"/>
   </bookViews>
   <sheets>
-    <sheet name="FEINmismatch" r:id="rId1" sheetId="1"/>
-    <sheet name="FEINSSNmismatch" r:id="rId2" sheetId="2"/>
+    <sheet name="FEINmismatch" sheetId="1" r:id="rId1"/>
+    <sheet name="FEINSSNmismatch" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="78">
   <si>
     <t>Result</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Wed Nov 01 15:36:14 EDT 2023</t>
   </si>
   <si>
-    <t>DONOTRUN</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>Thu Dec 07 21:27:10 EST 2023</t>
   </si>
   <si>
-    <t>DoNotRun</t>
-  </si>
-  <si>
     <t>Admissions and Amusement Tax</t>
   </si>
   <si>
@@ -154,618 +148,6 @@
   </si>
   <si>
     <t>Sales and Use Tax</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:29:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:30:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:30:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:30:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:30:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:30:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:30:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:31:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:31:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:31:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:31:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:32:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:32:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:32:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:32:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:32:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:33:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:33:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:33:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:33:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:34:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:34:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:34:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:34:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:34:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:35:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:35:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:35:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:35:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:35:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:35:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:36:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:36:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:36:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:36:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:36:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:37:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:37:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:37:23 EST 2024</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sun Jan 14 15:58:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 15:58:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 15:58:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 15:58:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 15:58:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 15:59:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 15:59:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 15:59:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 15:59:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 15:59:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:00:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:00:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:00:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:00:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:00:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:00:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:01:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:01:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:01:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:01:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:01:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:02:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:02:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:02:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:02:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:02:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:02:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:03:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:03:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:03:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:03:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:03:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:03:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:04:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:04:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:04:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:04:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:04:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:04:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:05:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:05:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:10:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:10:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:10:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:11:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:11:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:11:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:11:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:11:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:12:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:12:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:12:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:12:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:12:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:12:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:13:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:13:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:13:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:13:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:14:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:14:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:14:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:14:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:14:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:14:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:15:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:15:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:15:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:15:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:15:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:16:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:16:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:16:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:16:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:16:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:16:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:17:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:17:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:17:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:17:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:17:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:18:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:47:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:48:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:48:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:48:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:48:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:49:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:49:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:49:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:49:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:49:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:50:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:50:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:50:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:50:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:50:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:51:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:51:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:51:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:51:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:51:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:51:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:52:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:52:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:52:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:52:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:52:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:53:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:53:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:53:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:53:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:53:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:54:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:54:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:54:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:54:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:54:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:55:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:55:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:55:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:55:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:55:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:19:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:19:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:19:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:19:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:20:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:20:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:20:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:20:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:20:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:20:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:21:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:21:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:21:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:21:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:21:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:22:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:22:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:22:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:22:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:22:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:22:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:23:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:23:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:23:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:23:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:23:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:24:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:24:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:24:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:24:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:24:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:24:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:25:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:25:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:25:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:25:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:25:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:26:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:26:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:26:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:26:33 EST 2024</t>
   </si>
   <si>
     <t>Thu Mar 07 23:16:21 EST 2024</t>
@@ -895,7 +277,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -938,19 +319,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -967,10 +348,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1005,7 +386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1057,7 +438,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1168,21 +549,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1199,7 +580,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1251,28 +632,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4607C70C-95F5-42E8-8763-F94D5F6C9468}">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4607C70C-95F5-42E8-8763-F94D5F6C9468}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="40.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1297,7 +678,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1314,7 +695,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1331,7 +712,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1348,7 +729,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1365,7 +746,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1382,7 +763,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1399,7 +780,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1416,7 +797,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1433,7 +814,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1447,13 +828,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
@@ -1464,13 +845,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>21</v>
@@ -1484,7 +865,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>252</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1501,7 +882,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>253</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1510,7 +891,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1518,7 +899,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>254</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1527,7 +908,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1535,7 +916,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>255</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1544,7 +925,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1552,7 +933,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>256</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1561,7 +942,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1569,7 +950,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>257</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1578,7 +959,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1586,7 +967,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>258</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1595,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1603,7 +984,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1612,7 +993,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1620,7 +1001,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>260</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1637,7 +1018,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>261</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1654,7 +1035,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>262</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1671,7 +1052,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>263</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1680,7 +1061,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1688,7 +1069,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>264</v>
+        <v>58</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1697,7 +1078,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1705,7 +1086,7 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>265</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1714,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1722,7 +1103,7 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>266</v>
+        <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1739,7 +1120,7 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>267</v>
+        <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1748,7 +1129,7 @@
         <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1756,7 +1137,7 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>268</v>
+        <v>62</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1765,7 +1146,7 @@
         <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1773,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>269</v>
+        <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -1786,7 +1167,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1794,21 +1175,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834489CB-2884-4184-82EB-D42CF0009FC1}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834489CB-2884-4184-82EB-D42CF0009FC1}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C19"/>
+      <selection activeCell="C5" sqref="C5:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="40.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1833,7 +1214,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1850,7 +1231,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1867,7 +1248,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1884,7 +1265,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1901,7 +1282,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1918,7 +1299,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1935,7 +1316,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1952,7 +1333,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>277</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1972,7 +1353,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
@@ -1989,7 +1370,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
@@ -2006,7 +1387,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>21</v>
@@ -2023,7 +1404,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>21</v>
@@ -2037,7 +1418,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>278</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -2054,7 +1435,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>279</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -2071,7 +1452,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>280</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -2088,7 +1469,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -2105,7 +1486,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -2114,7 +1495,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2122,7 +1503,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -2131,10 +1512,10 @@
         <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05332167-E719-4128-8C2B-15CB0DEEC5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{987B59CF-54CC-4E7E-87F8-247B9B7E30D9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="30270" yWindow="915" windowWidth="24525" windowHeight="14010" activeTab="1" xr2:uid="{7FA755C6-479D-490F-B3D9-5A283DD51A2C}"/>
+    <workbookView activeTab="1" windowHeight="14010" windowWidth="24525" xWindow="31710" xr2:uid="{7FA755C6-479D-490F-B3D9-5A283DD51A2C}" yWindow="345"/>
   </bookViews>
   <sheets>
-    <sheet name="FEINmismatch" sheetId="1" r:id="rId1"/>
-    <sheet name="FEINSSNmismatch" sheetId="2" r:id="rId2"/>
+    <sheet name="FEINmismatch" r:id="rId1" sheetId="1"/>
+    <sheet name="FEINSSNmismatch" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="85">
   <si>
     <t>Result</t>
   </si>
@@ -271,12 +271,34 @@
   </si>
   <si>
     <t>Thu Mar 07 23:37:52 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:01:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:01:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:01:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:01:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:01:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:02:03 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -319,19 +341,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -348,10 +370,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -386,7 +408,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -438,7 +460,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -549,21 +571,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -580,7 +602,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -632,28 +654,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4607C70C-95F5-42E8-8763-F94D5F6C9468}">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4607C70C-95F5-42E8-8763-F94D5F6C9468}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C12"/>
+      <selection activeCell="C13" sqref="C13:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="40.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="40.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -680,9 +702,6 @@
       <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
@@ -697,9 +716,6 @@
       <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -714,9 +730,6 @@
       <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
@@ -731,9 +744,6 @@
       <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -748,9 +758,6 @@
       <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
@@ -765,9 +772,6 @@
       <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
@@ -782,9 +786,6 @@
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,9 +800,6 @@
       <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
@@ -816,9 +814,6 @@
       <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,10 +823,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -845,10 +840,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -867,9 +862,6 @@
       <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
@@ -884,9 +876,6 @@
       <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,9 +890,6 @@
       <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
@@ -918,9 +904,6 @@
       <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,9 +918,6 @@
       <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,9 +932,6 @@
       <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
@@ -969,9 +946,6 @@
       <c r="B19" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,9 +960,6 @@
       <c r="B20" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1003,9 +974,6 @@
       <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
@@ -1020,9 +988,6 @@
       <c r="B22" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1037,9 +1002,6 @@
       <c r="B23" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1054,9 +1016,6 @@
       <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1071,9 +1030,6 @@
       <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,9 +1044,6 @@
       <c r="B26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D26" s="1" t="s">
         <v>8</v>
       </c>
@@ -1105,9 +1058,6 @@
       <c r="B27" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1122,9 +1072,6 @@
       <c r="B28" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1139,9 +1086,6 @@
       <c r="B29" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1156,9 +1100,6 @@
       <c r="B30" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,7 +1108,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1175,21 +1116,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834489CB-2884-4184-82EB-D42CF0009FC1}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834489CB-2884-4184-82EB-D42CF0009FC1}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C13"/>
+      <selection activeCell="C14" sqref="C14:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="40.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="40.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1216,9 +1157,6 @@
       <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1233,9 +1171,6 @@
       <c r="B3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1250,9 +1185,6 @@
       <c r="B4" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1267,9 +1199,6 @@
       <c r="B5" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1284,9 +1213,6 @@
       <c r="B6" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1301,9 +1227,6 @@
       <c r="B7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1318,9 +1241,6 @@
       <c r="B8" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1335,9 +1255,6 @@
       <c r="B9" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1350,7 +1267,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1367,7 +1284,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1384,7 +1301,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1401,7 +1318,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1420,9 +1337,6 @@
       <c r="B14" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1437,9 +1351,6 @@
       <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1454,9 +1365,6 @@
       <c r="B16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1471,9 +1379,6 @@
       <c r="B17" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1488,9 +1393,6 @@
       <c r="B18" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1505,9 +1407,6 @@
       <c r="B19" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1516,6 +1415,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{987B59CF-54CC-4E7E-87F8-247B9B7E30D9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEC13F7-8EB7-48FC-9FBE-7E50C70C114E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="14010" windowWidth="24525" xWindow="31710" xr2:uid="{7FA755C6-479D-490F-B3D9-5A283DD51A2C}" yWindow="345"/>
+    <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" activeTab="1" xr2:uid="{7FA755C6-479D-490F-B3D9-5A283DD51A2C}"/>
   </bookViews>
   <sheets>
-    <sheet name="FEINmismatch" r:id="rId1" sheetId="1"/>
-    <sheet name="FEINSSNmismatch" r:id="rId2" sheetId="2"/>
+    <sheet name="FEINmismatch" sheetId="1" r:id="rId1"/>
+    <sheet name="FEINSSNmismatch" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="77">
   <si>
     <t>Result</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Existing Liability w/Notice Number</t>
-  </si>
-  <si>
     <t>Quarterly Estimated Tax</t>
   </si>
   <si>
@@ -105,27 +102,6 @@
     <t>Extension Payments</t>
   </si>
   <si>
-    <t>Wed Nov 01 15:35:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:35:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:36:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:36:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:26:59 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:27:10 EST 2023</t>
-  </si>
-  <si>
     <t>Admissions and Amusement Tax</t>
   </si>
   <si>
@@ -273,9 +249,6 @@
     <t>Thu Mar 07 23:37:52 EST 2024</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Wed Mar 20 23:01:00 EDT 2024</t>
   </si>
   <si>
@@ -292,13 +265,15 @@
   </si>
   <si>
     <t>Wed Mar 20 23:02:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Existing Liability with Notice/Invoice Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,19 +316,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -370,10 +345,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -408,7 +383,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -460,7 +435,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -571,21 +546,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -602,7 +577,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -654,28 +629,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4607C70C-95F5-42E8-8763-F94D5F6C9468}">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4607C70C-95F5-42E8-8763-F94D5F6C9468}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C30"/>
+      <selection activeCell="C2" sqref="C2:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="40.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="48" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -697,418 +672,499 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1116,21 +1172,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834489CB-2884-4184-82EB-D42CF0009FC1}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834489CB-2884-4184-82EB-D42CF0009FC1}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C19"/>
+      <selection activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="40.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1152,269 +1208,311 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>69</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEC13F7-8EB7-48FC-9FBE-7E50C70C114E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{BDEC13F7-8EB7-48FC-9FBE-7E50C70C114E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" activeTab="1" xr2:uid="{7FA755C6-479D-490F-B3D9-5A283DD51A2C}"/>
+    <workbookView activeTab="1" windowHeight="14010" windowWidth="24525" xWindow="1965" xr2:uid="{7FA755C6-479D-490F-B3D9-5A283DD51A2C}" yWindow="1155"/>
   </bookViews>
   <sheets>
-    <sheet name="FEINmismatch" sheetId="1" r:id="rId1"/>
-    <sheet name="FEINSSNmismatch" sheetId="2" r:id="rId2"/>
+    <sheet name="FEINmismatch" r:id="rId1" sheetId="1"/>
+    <sheet name="FEINSSNmismatch" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="97">
   <si>
     <t>Result</t>
   </si>
@@ -268,12 +268,73 @@
   </si>
   <si>
     <t>Existing Liability with Notice/Invoice Number</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Wed Mar 27 14:46:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 27 14:46:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 27 14:47:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 27 14:47:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 27 14:47:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 27 14:47:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 27 14:47:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 27 14:47:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 27 14:48:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 27 14:48:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 27 14:48:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 27 14:48:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 27 14:48:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 27 14:48:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 27 14:49:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 27 14:49:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 27 15:40:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 27 15:40:43 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -316,19 +377,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -345,10 +406,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -383,7 +444,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -435,7 +496,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -546,21 +607,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -577,7 +638,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -629,15 +690,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4607C70C-95F5-42E8-8763-F94D5F6C9468}">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4607C70C-95F5-42E8-8763-F94D5F6C9468}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C30"/>
@@ -645,12 +706,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="48" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="48.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -672,10 +733,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -689,10 +750,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -706,10 +767,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -723,10 +784,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -740,10 +801,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -757,10 +818,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -774,10 +835,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -794,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -811,7 +872,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -828,7 +889,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -842,10 +903,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -859,10 +920,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -876,10 +937,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -893,10 +954,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -910,10 +971,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1164,7 +1225,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1172,8 +1233,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834489CB-2884-4184-82EB-D42CF0009FC1}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834489CB-2884-4184-82EB-D42CF0009FC1}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C19"/>
@@ -1181,12 +1242,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="47.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1513,6 +1574,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="144">
   <si>
     <t>Result</t>
   </si>
@@ -328,6 +328,147 @@
   </si>
   <si>
     <t>Wed Mar 27 15:40:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:24:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:24:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:24:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:25:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:25:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:25:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:25:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:25:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:26:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:26:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:26:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:26:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:26:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:27:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:27:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:27:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:27:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:27:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:27:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:28:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:28:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:28:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:28:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:28:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:29:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:29:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:29:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:29:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:29:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:29:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:30:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:30:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:30:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:30:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:30:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:30:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:31:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:31:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:31:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:31:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:31:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:32:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:32:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:32:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:32:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:32:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:32:53 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -733,10 +874,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -750,10 +891,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -767,10 +908,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -784,10 +925,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -801,10 +942,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -818,10 +959,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -835,10 +976,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -855,7 +996,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -872,7 +1013,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -889,7 +1030,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -903,10 +1044,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -920,10 +1061,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -937,10 +1078,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -954,10 +1095,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -971,10 +1112,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -991,7 +1132,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1008,7 +1149,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1025,7 +1166,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1042,7 +1183,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1059,7 +1200,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1076,7 +1217,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1093,7 +1234,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1110,7 +1251,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1127,7 +1268,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1144,7 +1285,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1161,7 +1302,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1178,7 +1319,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1195,7 +1336,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1212,7 +1353,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -1272,7 +1413,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1289,7 +1430,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1306,7 +1447,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1323,7 +1464,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1340,7 +1481,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1357,7 +1498,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1374,7 +1515,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1391,7 +1532,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1408,7 +1549,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1425,7 +1566,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1442,7 +1583,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1459,7 +1600,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1476,7 +1617,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1493,7 +1634,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1510,7 +1651,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1527,7 +1668,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1544,7 +1685,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1561,7 +1702,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="191">
   <si>
     <t>Result</t>
   </si>
@@ -469,6 +469,147 @@
   </si>
   <si>
     <t>Mon Apr 08 17:32:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:20:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:20:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:20:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:21:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:21:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:21:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:21:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:21:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:22:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:22:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:22:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:22:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:22:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:23:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:23:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:23:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:23:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:23:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:24:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:24:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:24:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:24:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:24:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:25:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:25:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:25:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:25:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:25:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:26:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:26:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:26:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:26:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:26:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:27:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:27:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:27:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:27:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:27:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:27:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:28:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:28:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:28:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:28:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:28:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:29:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:29:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:29:30 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -877,7 +1018,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -894,7 +1035,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -911,7 +1052,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -928,7 +1069,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -945,7 +1086,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -962,7 +1103,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -979,7 +1120,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -996,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1013,7 +1154,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1030,7 +1171,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1047,7 +1188,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1064,7 +1205,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1081,7 +1222,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1098,7 +1239,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1115,7 +1256,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1132,7 +1273,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1149,7 +1290,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1166,7 +1307,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1183,7 +1324,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1200,7 +1341,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1217,7 +1358,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1234,7 +1375,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1251,7 +1392,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1268,7 +1409,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1285,7 +1426,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1302,7 +1443,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1319,7 +1460,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1336,7 +1477,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1353,7 +1494,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -1413,7 +1554,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1430,7 +1571,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1447,7 +1588,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1464,7 +1605,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1481,7 +1622,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1498,7 +1639,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1515,7 +1656,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1532,7 +1673,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1549,7 +1690,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1566,7 +1707,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1583,7 +1724,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1600,7 +1741,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1617,7 +1758,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1634,7 +1775,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1651,7 +1792,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1668,7 +1809,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1685,7 +1826,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1702,7 +1843,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="332">
   <si>
     <t>Result</t>
   </si>
@@ -610,6 +610,429 @@
   </si>
   <si>
     <t>Sat Oct 12 23:29:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:11:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:11:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:11:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:12:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:12:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:12:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:12:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:12:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:13:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:13:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:13:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:13:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:13:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:14:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:14:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:14:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:14:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:14:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:15:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:15:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:15:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:15:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:15:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:16:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:16:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:16:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:16:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:16:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:17:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:17:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:17:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:17:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:17:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:18:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:18:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:18:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:18:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:18:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:19:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:19:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:19:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:19:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:19:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:20:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:20:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:20:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:20:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:10:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:10:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:11:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:11:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:11:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:11:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:11:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:12:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:12:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:12:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:12:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:12:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:13:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:13:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:13:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:13:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:13:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:14:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:14:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:14:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:14:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:14:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:15:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:15:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:15:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:15:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:15:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:15:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:16:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:16:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:16:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:16:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:16:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:17:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:17:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:17:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:17:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:17:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:18:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:18:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:18:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:18:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:18:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:18:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:19:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:19:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:19:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:21:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:21:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:21:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:22:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:22:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:22:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:22:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:22:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:23:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:23:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:23:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:23:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:23:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:24:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:24:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:24:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:24:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:24:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:25:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:25:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:25:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:25:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:25:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:26:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:26:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:26:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:26:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:26:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:26:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:27:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:27:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:27:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:27:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:27:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:28:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:28:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:28:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:28:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:28:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:28:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:29:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:29:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:29:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:29:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:29:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:30:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:30:18 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1441,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>285</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1035,7 +1458,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>286</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1052,7 +1475,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1069,7 +1492,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>288</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1086,7 +1509,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>289</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1103,7 +1526,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>290</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1120,7 +1543,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>291</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1137,7 +1560,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>292</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1154,7 +1577,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1171,7 +1594,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>294</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1188,7 +1611,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>295</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1205,7 +1628,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>296</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1222,7 +1645,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>297</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1239,7 +1662,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>298</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1256,7 +1679,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>299</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1273,7 +1696,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>300</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1290,7 +1713,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>301</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1307,7 +1730,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>302</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1324,7 +1747,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>303</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1341,7 +1764,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>304</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1358,7 +1781,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>305</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1375,7 +1798,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1392,7 +1815,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>307</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1409,7 +1832,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>308</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1426,7 +1849,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>309</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1443,7 +1866,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>310</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1460,7 +1883,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>311</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1477,7 +1900,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>312</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1494,7 +1917,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>313</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -1554,7 +1977,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>314</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1571,7 +1994,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1588,7 +2011,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>316</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1605,7 +2028,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>317</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1622,7 +2045,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>318</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1639,7 +2062,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>319</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1656,7 +2079,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>320</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1673,7 +2096,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>321</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1690,7 +2113,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>322</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1707,7 +2130,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>323</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1724,7 +2147,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>324</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1741,7 +2164,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>325</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1758,7 +2181,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>326</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1775,7 +2198,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>327</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1792,7 +2215,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>187</v>
+        <v>328</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1809,7 +2232,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>329</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1826,7 +2249,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>330</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1843,7 +2266,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>331</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="379">
   <si>
     <t>Result</t>
   </si>
@@ -1033,6 +1033,147 @@
   </si>
   <si>
     <t>Fri Oct 25 11:30:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:55:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:55:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:55:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:55:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:55:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:56:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:56:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:56:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:56:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:56:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:57:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:57:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:57:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:57:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:57:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:58:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:58:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:58:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:58:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:58:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:59:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:59:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:59:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 15:59:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:00:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:00:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:00:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:00:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:00:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:01:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:01:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:01:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:01:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:01:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:02:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:02:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:02:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:02:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:02:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:03:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:03:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:03:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:03:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:03:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:04:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:04:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:04:55 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1582,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1458,7 +1599,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1475,7 +1616,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1492,7 +1633,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1509,7 +1650,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1526,7 +1667,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1543,7 +1684,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1560,7 +1701,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1577,7 +1718,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1594,7 +1735,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1611,7 +1752,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1628,7 +1769,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1645,7 +1786,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1662,7 +1803,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1679,7 +1820,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1696,7 +1837,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1713,7 +1854,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1730,7 +1871,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1747,7 +1888,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1764,7 +1905,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1781,7 +1922,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1798,7 +1939,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1815,7 +1956,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1832,7 +1973,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1849,7 +1990,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1866,7 +2007,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1883,7 +2024,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1900,7 +2041,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1917,7 +2058,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -1977,7 +2118,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1994,7 +2135,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -2011,7 +2152,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -2028,7 +2169,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -2045,7 +2186,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -2062,7 +2203,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -2079,7 +2220,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -2096,7 +2237,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -2113,7 +2254,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -2130,7 +2271,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -2147,7 +2288,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -2164,7 +2305,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -2181,7 +2322,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -2198,7 +2339,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -2215,7 +2356,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -2232,7 +2373,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -2249,7 +2390,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -2266,7 +2407,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="426">
   <si>
     <t>Result</t>
   </si>
@@ -1174,6 +1174,147 @@
   </si>
   <si>
     <t>Thu Nov 07 16:04:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:20:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:20:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:20:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:20:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:20:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:21:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:21:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:21:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:21:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:21:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:22:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:22:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:22:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:22:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:22:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:23:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:23:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:23:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:23:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:23:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:23:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:24:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:24:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:24:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:24:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:24:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:25:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:25:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:25:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:25:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:26:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:26:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:26:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:26:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:26:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:26:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:27:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:27:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:27:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:27:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:27:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:28:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:28:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:28:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:28:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:28:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:29:00 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1582,7 +1723,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1599,7 +1740,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1616,7 +1757,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1633,7 +1774,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1650,7 +1791,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1667,7 +1808,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1684,7 +1825,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1701,7 +1842,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1718,7 +1859,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1735,7 +1876,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1752,7 +1893,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1769,7 +1910,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1786,7 +1927,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1803,7 +1944,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1820,7 +1961,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1837,7 +1978,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1854,7 +1995,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1871,7 +2012,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1888,7 +2029,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1905,7 +2046,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1922,7 +2063,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1939,7 +2080,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1956,7 +2097,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1973,7 +2114,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1990,7 +2131,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -2007,7 +2148,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -2024,7 +2165,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -2041,7 +2182,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -2058,7 +2199,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -2118,7 +2259,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -2135,7 +2276,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -2152,7 +2293,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -2169,7 +2310,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -2186,7 +2327,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -2203,7 +2344,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -2220,7 +2361,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -2237,7 +2378,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -2254,7 +2395,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -2271,7 +2412,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -2288,7 +2429,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -2305,7 +2446,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -2322,7 +2463,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -2339,7 +2480,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -2356,7 +2497,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -2373,7 +2514,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -2390,7 +2531,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -2407,7 +2548,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="473">
   <si>
     <t>Result</t>
   </si>
@@ -1315,6 +1315,147 @@
   </si>
   <si>
     <t>Tue Nov 12 17:29:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:27:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:27:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:27:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:28:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:28:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:28:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:28:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:28:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:29:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:29:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:29:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:29:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:29:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:29:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:30:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:30:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:30:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:30:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:30:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:31:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:31:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:31:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:31:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:31:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:32:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:32:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:32:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:32:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:32:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:32:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:33:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:33:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:33:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:33:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:33:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:34:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:34:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:34:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:34:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:34:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:34:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:35:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:35:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:35:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:35:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:35:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:35:57 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1864,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1740,7 +1881,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1757,7 +1898,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1774,7 +1915,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1791,7 +1932,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1808,7 +1949,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1825,7 +1966,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1842,7 +1983,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1859,7 +2000,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1876,7 +2017,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1893,7 +2034,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1910,7 +2051,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1927,7 +2068,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1944,7 +2085,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1961,7 +2102,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1978,7 +2119,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1992,10 +2133,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -2009,10 +2150,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -2029,7 +2170,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -2046,7 +2187,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -2063,7 +2204,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -2080,7 +2221,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -2097,7 +2238,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -2114,7 +2255,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -2131,7 +2272,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -2148,7 +2289,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -2165,7 +2306,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -2179,10 +2320,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -2199,7 +2340,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -2259,7 +2400,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -2276,7 +2417,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -2293,7 +2434,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -2310,7 +2451,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -2327,7 +2468,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -2344,7 +2485,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -2361,7 +2502,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -2378,7 +2519,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -2395,7 +2536,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -2412,7 +2553,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -2429,7 +2570,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -2446,7 +2587,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -2463,7 +2604,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -2480,7 +2621,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -2497,7 +2638,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -2514,7 +2655,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -2531,7 +2672,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -2548,7 +2689,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159C8D78-6680-44DE-B74F-94F073D9C83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{64B82D0B-AA0C-4327-9D4B-A49E28017148}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="30600" yWindow="-120" windowWidth="30960" windowHeight="16920" activeTab="1" xr2:uid="{7FA755C6-479D-490F-B3D9-5A283DD51A2C}"/>
+    <workbookView activeTab="1" windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{7FA755C6-479D-490F-B3D9-5A283DD51A2C}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="FEINmismatch" sheetId="1" r:id="rId1"/>
-    <sheet name="FEINSSNmismatch" sheetId="2" r:id="rId2"/>
+    <sheet name="FEINmismatch" r:id="rId1" sheetId="1"/>
+    <sheet name="FEINSSNmismatch" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="132">
   <si>
     <t>Result</t>
   </si>
@@ -268,12 +268,178 @@
   </si>
   <si>
     <t>Thu Feb 06 12:38:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Digital Advertising Gross Revenues</t>
+  </si>
+  <si>
+    <t>PTE Composite</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:34:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:35:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:35:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:35:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:35:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:35:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:36:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:36:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:36:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:36:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:36:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:36:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:37:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:37:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:37:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:37:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:37:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:38:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:38:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:38:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:38:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:38:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:38:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:39:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:39:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:39:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:39:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:39:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:40:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:40:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:40:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:40:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:40:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:40:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:41:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:41:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:41:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:41:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:41:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:42:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:42:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:42:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:42:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:42:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:42:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:43:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:43:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:43:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:43:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:43:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:43:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:44:08 EST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -316,19 +482,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -345,10 +511,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -383,7 +549,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -435,7 +601,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -546,21 +712,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -577,7 +743,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -629,28 +795,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4607C70C-95F5-42E8-8763-F94D5F6C9468}">
-  <dimension ref="A1:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4607C70C-95F5-42E8-8763-F94D5F6C9468}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="48" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="48.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -675,7 +841,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -692,7 +858,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -709,7 +875,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -726,7 +892,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -743,7 +909,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -760,7 +926,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -777,7 +943,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -794,7 +960,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -811,7 +977,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -828,7 +994,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -845,7 +1011,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -862,7 +1028,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -879,7 +1045,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -896,7 +1062,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -913,7 +1079,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -930,7 +1096,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -947,7 +1113,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -964,7 +1130,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -981,7 +1147,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -998,7 +1164,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1015,7 +1181,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1032,7 +1198,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1049,7 +1215,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1066,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1083,7 +1249,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1100,7 +1266,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1112,8 +1278,42 @@
         <v>18</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1121,21 +1321,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834489CB-2884-4184-82EB-D42CF0009FC1}">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834489CB-2884-4184-82EB-D42CF0009FC1}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="47.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1160,7 +1360,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1177,7 +1377,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1194,7 +1394,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1211,7 +1411,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1228,7 +1428,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1245,7 +1445,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1262,7 +1462,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1279,7 +1479,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1296,7 +1496,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1313,7 +1513,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1330,7 +1530,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1347,7 +1547,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1364,7 +1564,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1381,7 +1581,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1398,7 +1598,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1415,7 +1615,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1432,7 +1632,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1449,7 +1649,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1466,7 +1666,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1483,7 +1683,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1500,7 +1700,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1512,7 +1712,58 @@
         <v>26</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="184">
   <si>
     <t>Result</t>
   </si>
@@ -433,6 +433,162 @@
   </si>
   <si>
     <t>Tue Feb 11 19:44:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:35:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:37:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:38:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:39:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:41:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:42:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:43:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:44:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:44:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:45:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:45:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:45:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:45:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:46:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:48:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:49:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:50:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:50:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:51:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:51:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:51:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:51:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:51:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:51:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:52:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:52:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:52:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:53:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:54:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:54:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:54:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:54:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:55:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:55:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:55:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:55:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:55:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:56:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:56:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:56:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:56:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:56:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:57:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:57:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:57:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:57:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:57:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:58:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:58:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:58:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:58:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:58:46 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -841,7 +997,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -858,7 +1014,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -875,7 +1031,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -892,7 +1048,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -909,7 +1065,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -926,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -943,7 +1099,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -960,7 +1116,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -977,7 +1133,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -994,7 +1150,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1011,7 +1167,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1028,7 +1184,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1045,7 +1201,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1062,7 +1218,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1079,7 +1235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1096,7 +1252,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1113,7 +1269,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1130,7 +1286,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1147,7 +1303,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1164,7 +1320,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1181,7 +1337,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1198,7 +1354,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1215,7 +1371,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1232,7 +1388,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1249,7 +1405,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1266,7 +1422,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1283,7 +1439,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1300,7 +1456,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1360,7 +1516,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1377,7 +1533,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1394,7 +1550,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1411,7 +1567,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1428,7 +1584,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1445,7 +1601,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1462,7 +1618,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1479,7 +1635,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1496,7 +1652,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1513,7 +1669,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1530,7 +1686,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1547,7 +1703,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1564,7 +1720,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1581,7 +1737,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1598,7 +1754,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1615,7 +1771,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1632,7 +1788,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1649,7 +1805,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1666,7 +1822,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1683,7 +1839,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1700,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1717,7 +1873,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1734,7 +1890,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1751,7 +1907,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t465179\Documents\git\VPS-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{64B82D0B-AA0C-4327-9D4B-A49E28017148}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9CBBFBDF-61C2-4D84-ADD9-3049F95E8824}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{7FA755C6-479D-490F-B3D9-5A283DD51A2C}" yWindow="-120"/>
+    <workbookView activeTab="1" windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{7FA755C6-479D-490F-B3D9-5A283DD51A2C}" yWindow="-3945"/>
   </bookViews>
   <sheets>
     <sheet name="FEINmismatch" r:id="rId1" sheetId="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="137">
   <si>
     <t>Result</t>
   </si>
@@ -129,466 +129,325 @@
     <t>Existing Liability with Notice/Invoice Number</t>
   </si>
   <si>
-    <t>Tue Jan 28 21:27:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:27:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:27:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:28:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:28:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:28:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:28:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:28:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:29:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:29:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:29:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:29:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:29:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:29:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:30:11 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:30:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:30:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:31:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:31:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:31:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:31:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:31:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:32:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:32:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:32:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:32:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:32:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:33:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:33:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:33:29 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:33:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:33:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:34:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:34:11 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:34:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:34:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:34:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:34:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:35:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:35:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:35:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:35:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:35:47 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:35:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 12:38:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 12:38:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 12:38:51 EST 2025</t>
-  </si>
-  <si>
     <t>Digital Advertising Gross Revenues</t>
   </si>
   <si>
     <t>PTE Composite</t>
   </si>
   <si>
+    <t>Mon Feb 24 21:35:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:37:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:38:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:39:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:41:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:42:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:43:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:44:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:44:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:45:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:45:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:45:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:45:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:46:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:48:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:49:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:50:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:50:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:51:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:51:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:51:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:51:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:51:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:51:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:52:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:52:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:52:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:53:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:54:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:54:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:54:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:54:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:55:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:55:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:55:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:55:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:55:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:56:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:56:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:56:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:56:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:56:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:57:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:57:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:57:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:57:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:57:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:58:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:58:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:58:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:58:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:58:46 EST 2025</t>
+  </si>
+  <si>
+    <t>DoNotRun</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Tue Feb 11 19:34:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:35:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:35:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:35:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:35:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:35:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:36:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:36:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:36:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:36:34 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:36:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:36:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:37:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:37:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:37:29 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:37:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:37:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:38:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:38:13 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:38:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:38:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:38:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:38:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:39:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:39:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:39:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:39:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:39:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:40:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:40:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:40:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:40:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:40:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:40:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:41:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:41:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:41:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:41:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:41:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:42:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:42:11 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:42:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:42:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:42:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:42:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:43:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:43:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:43:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:43:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:43:47 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:43:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:44:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:35:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:37:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:38:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:39:47 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:41:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:42:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:43:29 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:44:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:44:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:45:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:45:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:45:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:45:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:46:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:48:10 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:49:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:50:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:50:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:51:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:51:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:51:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:51:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:51:47 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:51:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:52:10 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:52:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:52:34 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:53:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:54:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:54:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:54:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:54:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:55:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:55:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:55:29 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:55:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:55:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:56:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:56:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:56:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:56:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:56:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:57:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:57:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:57:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:57:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:57:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:58:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:58:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:58:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:58:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 21:58:46 EST 2025</t>
+    <t>Sat Oct 04 14:57:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 14:59:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:00:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:01:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:02:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:03:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:04:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:06:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:06:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:06:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:06:24 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:06:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:06:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:07:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:08:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:10:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:11:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:11:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:11:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:11:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:11:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:11:44 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:11:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:11:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:12:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:12:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:13:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:14:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:15:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:16:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:18:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:18:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:18:24 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:18:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:18:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:18:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:18:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:18:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:18:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:19:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:20:17 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:21:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:22:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:23:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:25:08 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:25:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:25:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:25:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:25:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:25:37 EDT 2025</t>
   </si>
 </sst>
 </file>
@@ -965,17 +824,17 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="1" max="1" style="1" width="9.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.1796875" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="48.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="43.26953125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,12 +851,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1009,12 +868,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1026,12 +885,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1043,12 +902,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1060,12 +919,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1077,12 +936,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1094,12 +953,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1111,12 +970,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1128,12 +987,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1145,12 +1004,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1162,12 +1021,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1179,12 +1038,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1196,12 +1055,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1213,12 +1072,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1230,12 +1089,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1247,12 +1106,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1264,12 +1123,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1281,12 +1140,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1298,12 +1157,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1315,12 +1174,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1332,12 +1191,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1349,12 +1208,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1366,12 +1225,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1383,12 +1242,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1400,12 +1259,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1417,12 +1276,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1434,12 +1293,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1448,15 +1307,15 @@
         <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1465,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1481,20 +1340,20 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="47.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" style="1" width="9.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.7265625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="47.7265625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="43.26953125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1511,12 +1370,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1528,12 +1387,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1545,12 +1404,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1562,12 +1421,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1579,12 +1438,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1596,12 +1455,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1613,12 +1472,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1630,12 +1489,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1647,12 +1506,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1664,12 +1523,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1681,12 +1540,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1698,12 +1557,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1715,12 +1574,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1732,12 +1591,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1749,12 +1608,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1766,12 +1625,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1783,12 +1642,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1800,12 +1659,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1817,12 +1676,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1834,15 +1693,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>29</v>
@@ -1851,12 +1710,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1868,12 +1727,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1882,18 +1741,18 @@
         <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>7</v>
@@ -1902,12 +1761,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1916,7 +1775,7 @@
         <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/RADTestData/FEINmismatch.xlsx
+++ b/KatalonData/RADTestData/FEINmismatch.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="141">
   <si>
     <t>Result</t>
   </si>
@@ -448,6 +448,18 @@
   </si>
   <si>
     <t>Sat Oct 04 15:25:37 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:22:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:23:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:24:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:25:55 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -853,10 +865,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -873,7 +885,7 @@
         <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -887,10 +899,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -907,7 +919,7 @@
         <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
